--- a/Table/client/lua/exe/temp/L 灵饰套装表.xlsx
+++ b/Table/client/lua/exe/temp/L 灵饰套装表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE5D33D-B8E1-4D3C-8F0B-CB421E560D80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4860" windowWidth="26460" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +14,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>套装分类</t>
   </si>
@@ -70,19 +75,7 @@
     <t>10101,10301</t>
   </si>
   <si>
-    <t>橙1星套装</t>
-  </si>
-  <si>
-    <t>橙2星套装</t>
-  </si>
-  <si>
     <t>10301</t>
-  </si>
-  <si>
-    <t>红2星套装</t>
-  </si>
-  <si>
-    <t>红3星套装</t>
   </si>
   <si>
     <t>10201,10401</t>
@@ -97,13 +90,77 @@
   <si>
     <t>套装星级</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙1星套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙2星套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅2星套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅3星套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>전설 1성 세트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>전설 2성 세트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신화 2성 세트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신화 3성 세트</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +182,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,13 +216,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,21 +507,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="8" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,74 +531,75 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>125</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
       <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
@@ -533,11 +607,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>8</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
       <c r="M2" s="3">
         <v>0</v>
       </c>
@@ -548,37 +622,40 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>4</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>500</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>200</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
@@ -586,11 +663,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>32</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
       <c r="M3" s="3">
         <v>0</v>
       </c>
@@ -601,37 +678,40 @@
         <v>0</v>
       </c>
       <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>4</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>301</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1250</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
       <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>500</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
@@ -642,11 +722,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>32</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
@@ -654,37 +734,40 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>5</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>401</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>2500</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
       <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1000</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
@@ -701,46 +784,49 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>64</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
       <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>5</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="R5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>125</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
       <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
       <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>8</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
@@ -760,40 +846,43 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>4</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
       <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>200</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
       <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>32</v>
       </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
@@ -813,43 +902,46 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>302</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
         <v>1250</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>32</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -866,34 +958,37 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>5</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>402</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -916,16 +1011,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>64</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -933,8 +1031,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -942,8 +1041,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -951,8 +1051,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -960,27 +1061,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>

--- a/Table/client/lua/exe/temp/L 灵饰套装表.xlsx
+++ b/Table/client/lua/exe/temp/L 灵饰套装表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE5D33D-B8E1-4D3C-8F0B-CB421E560D80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1245" yWindow="4860" windowWidth="26460" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>套装分类</t>
   </si>
@@ -75,7 +70,19 @@
     <t>10101,10301</t>
   </si>
   <si>
+    <t>橙1星套装</t>
+  </si>
+  <si>
+    <t>橙2星套装</t>
+  </si>
+  <si>
     <t>10301</t>
+  </si>
+  <si>
+    <t>红2星套装</t>
+  </si>
+  <si>
+    <t>红3星套装</t>
   </si>
   <si>
     <t>10201,10401</t>
@@ -90,77 +97,13 @@
   <si>
     <t>套装星级</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙1星套裝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙2星套裝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅2星套裝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紅3星套裝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>전설 1성 세트</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>전설 2성 세트</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신화 2성 세트</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신화 3성 세트</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,26 +125,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,16 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,21 +434,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="7" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,74 +458,73 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -607,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3">
         <v>0</v>
@@ -622,39 +548,36 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F3" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H3" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -663,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L3" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -678,39 +601,36 @@
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="3">
-        <v>4</v>
-      </c>
-      <c r="R3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>301</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F4" s="3">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H4" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -722,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M4" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -734,39 +654,36 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="3">
-        <v>5</v>
-      </c>
-      <c r="R4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>401</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F5" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -784,48 +701,45 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O5" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="3">
-        <v>5</v>
-      </c>
-      <c r="R5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>125</v>
+      </c>
       <c r="E6" s="3">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
@@ -846,42 +760,39 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="3">
-        <v>4</v>
-      </c>
-      <c r="R6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+      <c r="D7" s="3">
+        <v>500</v>
       </c>
       <c r="E7" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -902,45 +813,42 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="3">
-        <v>4</v>
-      </c>
-      <c r="R7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>302</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1250</v>
       </c>
       <c r="E8" s="3">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J8" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -958,36 +866,33 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="3">
-        <v>5</v>
-      </c>
-      <c r="R8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>402</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2500</v>
       </c>
       <c r="E9" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1011,19 +916,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P9" s="3">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="3">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1031,9 +933,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1041,9 +942,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1051,9 +951,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1061,28 +960,27 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
